--- a/tmp/sessions/40e90e2b-0bf9-4591-a928-31738fcc25cb_video_memo.xlsx
+++ b/tmp/sessions/40e90e2b-0bf9-4591-a928-31738fcc25cb_video_memo.xlsx
@@ -25,10 +25,10 @@
     <t>url</t>
   </si>
   <si>
-    <t>あｓｄさだｄさｄ</t>
+    <t>dcsdsdvsdsdvsdvsvsdv</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=K_nifZYw6KM&amp;t=4327s</t>
+    <t>https://www.youtube.com/watch?v=K_nifZYw6KM&amp;t=3004s</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
